--- a/data/trans_dic/P42-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42-Provincia-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.8502842638322096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9462951844411216</v>
+        <v>0.9462951844411215</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7283434486359166</v>
+        <v>0.7276114573802572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8390530347991721</v>
+        <v>0.8422443123496004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8042021742294442</v>
+        <v>0.8044764884839986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8942723538159527</v>
+        <v>0.8950994970272828</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8330369402806966</v>
+        <v>0.8333734361042405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9183464095254131</v>
+        <v>0.9184108330300691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.885068921560562</v>
+        <v>0.89066552525023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.971828216626227</v>
+        <v>0.9730272787887116</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.8426565143304811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8977943213767373</v>
+        <v>0.8977943213767374</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7799364153901118</v>
+        <v>0.7780691971268938</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8818947673607731</v>
+        <v>0.8780301538886837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8077645305893391</v>
+        <v>0.8089911891024157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8577025997467567</v>
+        <v>0.8580333633222111</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8470634642174755</v>
+        <v>0.8483628906786649</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9317127297856452</v>
+        <v>0.9318021877086278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8744200873309773</v>
+        <v>0.8749054060406614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.926124123410487</v>
+        <v>0.9261897858597606</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.866424688728193</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8039069332948386</v>
+        <v>0.8039069332948389</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7090283650771677</v>
+        <v>0.7135150591631901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8112001936469122</v>
+        <v>0.8164855229883693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8270065974904478</v>
+        <v>0.8273824669534002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.748494398311692</v>
+        <v>0.7463866247056912</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8059272290691015</v>
+        <v>0.8014912303584537</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8886653107721855</v>
+        <v>0.8884412553477185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8979087517787943</v>
+        <v>0.8984760231498783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8468190213038579</v>
+        <v>0.845839739709385</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.8465031222270116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8815185625892783</v>
+        <v>0.8815185625892785</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7172692498475356</v>
+        <v>0.7184450312481142</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8037613626941937</v>
+        <v>0.8034494259561757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.807416563286827</v>
+        <v>0.8076195587320706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8253479945514254</v>
+        <v>0.8275337247944015</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8054871521911219</v>
+        <v>0.8034524188959811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8791968008176765</v>
+        <v>0.8805392556598147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8818642724043645</v>
+        <v>0.8821263673462377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9202303692150537</v>
+        <v>0.9248266014481974</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.8962084447587532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8554943882391923</v>
+        <v>0.8554943882391921</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.66899481351604</v>
+        <v>0.6695638896582365</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8076038401015573</v>
+        <v>0.8030750894398987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8502878010743427</v>
+        <v>0.8524232555558391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8026405131286252</v>
+        <v>0.803745472719785</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7931824096975068</v>
+        <v>0.7948233043394574</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.902718512515354</v>
+        <v>0.9010161935059768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9326538359369899</v>
+        <v>0.9320669862261168</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8990777631390875</v>
+        <v>0.8953554429435754</v>
       </c>
     </row>
     <row r="19">
@@ -921,7 +921,7 @@
         <v>0.7862265899095179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7121477808323466</v>
+        <v>0.7121477808323464</v>
       </c>
     </row>
     <row r="20">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6774731808329911</v>
+        <v>0.681176337123487</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8151262222941713</v>
+        <v>0.8143997036765779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7337856842805131</v>
+        <v>0.7370753244654547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6564030023991276</v>
+        <v>0.6554271600947807</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.782878946911323</v>
+        <v>0.7871539582158992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8983554931453062</v>
+        <v>0.8966773456114584</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.832458707196931</v>
+        <v>0.8310556725751028</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7643483646293828</v>
+        <v>0.7645321807257359</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.9178006432341689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8739124190675351</v>
+        <v>0.873912419067535</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8053417178218357</v>
+        <v>0.8042375828172101</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8718169885869775</v>
+        <v>0.8725286306870366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8907912703670672</v>
+        <v>0.8961625977993124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8409432426592365</v>
+        <v>0.8377695265935785</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8654999123076482</v>
+        <v>0.8647359609877605</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9186110877217865</v>
+        <v>0.9169390233899303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9358820743715802</v>
+        <v>0.937222354893377</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9017365631090292</v>
+        <v>0.9015288121252051</v>
       </c>
     </row>
     <row r="25">
@@ -1049,7 +1049,7 @@
         <v>0.8957879291955378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7625534142751611</v>
+        <v>0.7625534142751612</v>
       </c>
     </row>
     <row r="26">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7702973566738792</v>
+        <v>0.7631925919313465</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8232809728693342</v>
+        <v>0.8246070539215719</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8713042818658575</v>
+        <v>0.8729496030686905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7249958418386818</v>
+        <v>0.7261806257222345</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8298241158449787</v>
+        <v>0.825800222723057</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8755707005152779</v>
+        <v>0.8756755760414739</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9154904391890821</v>
+        <v>0.9152432039804385</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7941185633561526</v>
+        <v>0.7955195823526964</v>
       </c>
     </row>
     <row r="28">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>189980</v>
+        <v>189789</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>238393</v>
+        <v>239299</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>226507</v>
+        <v>226584</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>182212</v>
+        <v>182380</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>217288</v>
+        <v>217375</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>260922</v>
+        <v>260940</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>249283</v>
+        <v>250860</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>198014</v>
+        <v>198258</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>391426</v>
+        <v>390489</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>461031</v>
+        <v>459010</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>419407</v>
+        <v>420044</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>370234</v>
+        <v>370377</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>425115</v>
+        <v>425767</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>487074</v>
+        <v>487121</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>454016</v>
+        <v>454268</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>399769</v>
+        <v>399797</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>236482</v>
+        <v>237979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>275790</v>
+        <v>277587</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>276481</v>
+        <v>276606</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>191177</v>
+        <v>190639</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>268801</v>
+        <v>267321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>302127</v>
+        <v>302050</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>300184</v>
+        <v>300374</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>216291</v>
+        <v>216041</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>265633</v>
+        <v>266069</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>311839</v>
+        <v>311717</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>311953</v>
+        <v>312031</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>264574</v>
+        <v>265274</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>298304</v>
+        <v>297551</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>341105</v>
+        <v>341626</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>340716</v>
+        <v>340817</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>294989</v>
+        <v>296462</v>
       </c>
     </row>
     <row r="20">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>136051</v>
+        <v>136167</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>177343</v>
+        <v>176348</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>185124</v>
+        <v>185589</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>133650</v>
+        <v>133834</v>
       </c>
     </row>
     <row r="23">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>161306</v>
+        <v>161640</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>198229</v>
+        <v>197855</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>203056</v>
+        <v>202929</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>149708</v>
+        <v>149088</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>187642</v>
+        <v>188667</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>228261</v>
+        <v>228057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>200408</v>
+        <v>201306</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>141410</v>
+        <v>141200</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>216836</v>
+        <v>218020</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>251567</v>
+        <v>251097</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>227357</v>
+        <v>226974</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>164665</v>
+        <v>164705</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>513984</v>
+        <v>513280</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>602176</v>
+        <v>602668</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>610058</v>
+        <v>613737</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>450579</v>
+        <v>448879</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>552378</v>
+        <v>551891</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>634498</v>
+        <v>633343</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>640939</v>
+        <v>641857</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>483152</v>
+        <v>483041</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>600033</v>
+        <v>594499</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>668514</v>
+        <v>669591</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>714350</v>
+        <v>715699</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>486212</v>
+        <v>487007</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>646402</v>
+        <v>643268</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>710974</v>
+        <v>711059</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>750577</v>
+        <v>750374</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>532568</v>
+        <v>533508</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
     </row>
     <row r="40">
